--- a/content/posts/05_2022_yks_puan hesaplama/params.xlsx
+++ b/content/posts/05_2022_yks_puan hesaplama/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\05_2022_yks_puan hesaplama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F23E1-62BA-43D2-B6CB-B6EC928A4E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23936DB6-CBE6-484B-8CD3-887443B4C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{098A5C66-FC07-4B53-A0BF-C9954BB923B0}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Dil Testi</t>
   </si>
   <si>
-    <t>SABİT</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -141,14 +138,25 @@
   </si>
   <si>
     <t>SÖZ2019</t>
+  </si>
+  <si>
+    <t>Sabit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,9 +184,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +508,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,44 +523,44 @@
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1308,10 +1317,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>

--- a/content/posts/05_2022_yks_puan hesaplama/params.xlsx
+++ b/content/posts/05_2022_yks_puan hesaplama/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\05_2022_yks_puan hesaplama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23936DB6-CBE6-484B-8CD3-887443B4C628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759DD1C1-4641-48FA-A691-412D8EA72540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{098A5C66-FC07-4B53-A0BF-C9954BB923B0}"/>
   </bookViews>
@@ -508,7 +508,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
